--- a/Xls2String/Strings.xlsx
+++ b/Xls2String/Strings.xlsx
@@ -7,127 +7,376 @@
     <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
-    <sheet name="strings" sheetId="1" r:id="rId1"/>
+    <sheet name="SunmiSecurityService" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" refMode="R1C1"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="242">
-  <si>
-    <t>type_string(这一列不需要翻译)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="362">
+  <si>
+    <r>
+      <t>type_string(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不要修改这个申明</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
   <si>
     <t>English</t>
   </si>
   <si>
+    <t>Portuguese</t>
+  </si>
+  <si>
     <t>this_app_name</t>
   </si>
   <si>
     <t>SunmiSecurityService</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>SunmiSecurityService</t>
+    </r>
+  </si>
+  <si>
     <t>tip</t>
   </si>
   <si>
     <t>Tip</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Dica</t>
+    </r>
+  </si>
+  <si>
     <t>not_allow_clear</t>
   </si>
   <si>
     <t>Clear data cache is prohibited</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Limpar o cache de dados é proibido</t>
+    </r>
+  </si>
+  <si>
     <t>preparing_mode_trsation</t>
   </si>
   <si>
     <t>Processing...</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Em processamento...</t>
+    </r>
+  </si>
+  <si>
     <t>conversion_system_mode</t>
   </si>
   <si>
     <t>Please input auth code to switch mode</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Insira o código de autenticação para alternar o modo</t>
+    </r>
+  </si>
+  <si>
     <t>POS_attack</t>
   </si>
   <si>
     <t>Attacked! Please contact your service provider</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Atacado! Entre em contato com seu provedor de serviços</t>
+    </r>
+  </si>
+  <si>
     <t>reboot_system_now</t>
   </si>
   <si>
     <t>Reboot Now</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Reiniciar agora</t>
+    </r>
+  </si>
+  <si>
     <t>reboot_message</t>
   </si>
   <si>
     <t>The device will reboot after 30 seconds</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>O dispositivo irá reiniciar após 30 segundos</t>
+    </r>
+  </si>
+  <si>
     <t>ok</t>
   </si>
   <si>
     <t>OK</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>OK</t>
+    </r>
+  </si>
+  <si>
     <t>security1</t>
   </si>
   <si>
     <t>Screen security</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Segurança de tela</t>
+    </r>
+  </si>
+  <si>
     <t>security2</t>
   </si>
   <si>
     <t>Set lock screen password</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Definir senha da tela de bloqueio</t>
+    </r>
+  </si>
+  <si>
     <t>check_title</t>
   </si>
   <si>
     <t>Alarm cause investigation</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Investigação da causa do alarme</t>
+    </r>
+  </si>
+  <si>
     <t>shutdown</t>
   </si>
   <si>
     <t>Shutdown and repair</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Desligamento e reparo</t>
+    </r>
+  </si>
+  <si>
     <t>clean_alarm</t>
   </si>
   <si>
     <t>clear alarm</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>limpar alarme</t>
+    </r>
+  </si>
+  <si>
     <t>input_authcode_hint</t>
   </si>
   <si>
     <t>Please input auth code to unlock</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Insira o código de autenticação para desbloquear</t>
+    </r>
+  </si>
+  <si>
     <t>pro_check_code</t>
   </si>
   <si>
     <t>Verifying auth code,please wait...</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Verificando o código de autenticação. Aguarde...</t>
+    </r>
+  </si>
+  <si>
     <t>toast_debug_mode</t>
   </si>
   <si>
     <t>Debug mode device not allow to switch transaction mode!</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>O dispositivo do modo de depuração não permite alternar o modo de transação!</t>
+    </r>
+  </si>
+  <si>
     <t>error_sp_hint</t>
   </si>
   <si>
-    <t>Get device mode failed，please retry!</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Get device mode failed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>please retry!</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Falha ao obter o modo de dispositivo. Tente novamente!</t>
+    </r>
   </si>
   <si>
     <t>status_code</t>
@@ -136,88 +385,270 @@
     <t>Error code:</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Erro de código:</t>
+    </r>
+  </si>
+  <si>
     <t>check_fail5</t>
   </si>
   <si>
     <t>Authorize times over limited,please retry after 24h</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Autorize horários além do limite. Tente novamente depois de 24 horas</t>
+    </r>
+  </si>
+  <si>
     <t>fail_check_times</t>
   </si>
   <si>
     <t>Authorize failed,%d times left,please retry</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>A autorização falhou. Faltam % d vezes. Tente novamente</t>
+    </r>
+  </si>
+  <si>
     <t>fail_check_sp</t>
   </si>
   <si>
     <t>SP verify encrypt data failed</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Falha ao verificar a criptografia de dados de SP</t>
+    </r>
+  </si>
+  <si>
     <t>error_net</t>
   </si>
   <si>
     <t>Network error</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Erro de rede</t>
+    </r>
+  </si>
+  <si>
     <t>alarm_reason_1</t>
   </si>
   <si>
     <t>1-channel alarm</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1-Alarme do canal</t>
+    </r>
+  </si>
+  <si>
     <t>alarm_reason_2</t>
   </si>
   <si>
     <t>2-channel alarm</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2-Alarme do canal</t>
+    </r>
+  </si>
+  <si>
     <t>alarm_reason_3</t>
   </si>
   <si>
     <t>3-channel alarm</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3-Alarme do canal</t>
+    </r>
+  </si>
+  <si>
     <t>alarm_reason_4</t>
   </si>
   <si>
     <t>4-channel alarm</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4-Alarme do canal</t>
+    </r>
+  </si>
+  <si>
     <t>alarm_reason_lost</t>
   </si>
   <si>
     <t>Sensitive data lost</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Dados sensíveis perdidos</t>
+    </r>
+  </si>
+  <si>
     <t>fail_getdata_sp</t>
   </si>
   <si>
     <t>Connect to SP failed,please retry!</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Falha na conexão com o SP. Tente novamente!</t>
+    </r>
+  </si>
+  <si>
     <t>history_status</t>
   </si>
   <si>
     <t>History Record</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Registro de histórico</t>
+    </r>
+  </si>
+  <si>
     <t>current_status</t>
   </si>
   <si>
     <t>Current Status</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Status atual</t>
+    </r>
+  </si>
+  <si>
     <t>alarm_reason</t>
   </si>
   <si>
     <t>Alarm Reason</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Razão do alarme</t>
+    </r>
+  </si>
+  <si>
     <t>confirm_shutdown</t>
   </si>
   <si>
-    <t>Shutdown right now？</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Shutdown right now</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>？</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Desligar agora?</t>
+    </r>
   </si>
   <si>
     <t>confirm_yes</t>
@@ -229,66 +660,187 @@
     <t>Cancel</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Cancelar</t>
+    </r>
+  </si>
+  <si>
     <t>success</t>
   </si>
   <si>
     <t>Finish</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Finalizar</t>
+    </r>
+  </si>
+  <si>
     <t>button_next_step</t>
   </si>
   <si>
     <t>Next step</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Próxima Etapa</t>
+    </r>
+  </si>
+  <si>
     <t>wifi_searching</t>
   </si>
   <si>
     <t>Searching...</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Pesquisando...</t>
+    </r>
+  </si>
+  <si>
     <t>network_sim_status_failed</t>
   </si>
   <si>
     <t>Detected SIM card,but connect to network failed</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Cartão SIM detectado, mas a conexão à rede falhou</t>
+    </r>
+  </si>
+  <si>
     <t>network_sim_setting</t>
   </si>
   <si>
     <t>Setting</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Configuração</t>
+    </r>
+  </si>
+  <si>
     <t>network_sim_connect</t>
   </si>
   <si>
     <t>SIM Network</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Rede SIM</t>
+    </r>
+  </si>
+  <si>
     <t>network_activation</t>
   </si>
   <si>
     <t>Connect to network</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Conectar à rede</t>
+    </r>
+  </si>
+  <si>
     <t>network_trial</t>
   </si>
   <si>
     <t>Time limit experience</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Observando o limite de tempo</t>
+    </r>
+  </si>
+  <si>
     <t>network_wifi_connected</t>
   </si>
   <si>
     <t>Connected</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Conectado</t>
+    </r>
+  </si>
+  <si>
     <t>network_wifi_verify</t>
   </si>
   <si>
     <t>Authentication is being carried out...</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>A autenticação está sendo realizada...</t>
+    </r>
+  </si>
+  <si>
     <t>dialog_cancel</t>
   </si>
   <si>
@@ -298,64 +850,211 @@
     <t>Cancel Save</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Cancelar Salvar</t>
+    </r>
+  </si>
+  <si>
     <t>dialog_install_sim_card</t>
   </si>
   <si>
     <t>Install SIM card as shown in the picture  Click [retry] after installing finished</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Instalar o cartão SIM conforme mostrado na foto. Clique em [repetir] após a conclusão da instalação</t>
+    </r>
+  </si>
+  <si>
     <t>dialog_retry</t>
   </si>
   <si>
     <t>Retry</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Tentar novamente</t>
+    </r>
+  </si>
+  <si>
     <t>dialog_password_error</t>
   </si>
   <si>
     <t>Password error</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Erro de senha</t>
+    </r>
+  </si>
+  <si>
     <t>dialog_password_input</t>
   </si>
   <si>
     <t>Input password</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Inserir a senha</t>
+    </r>
+  </si>
+  <si>
     <t>dialog_connect</t>
   </si>
   <si>
     <t>Connect</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Conectar</t>
+    </r>
+  </si>
+  <si>
     <t>dialog_network_connection_failed</t>
   </si>
   <si>
     <t>Connect to network failed</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Falha na conexão com a rede</t>
+    </r>
+  </si>
+  <si>
     <t>dialog_known</t>
   </si>
   <si>
     <t>I known it</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Eu estava ciente</t>
+    </r>
+  </si>
+  <si>
     <t>dialog_help</t>
   </si>
   <si>
     <t>How to fix</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Como reparar</t>
+    </r>
+  </si>
+  <si>
     <t>wenxintishi_msg1</t>
   </si>
   <si>
-    <t>There are some problems with the device,Please contact your sales agency in time：400-902-1168</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>There are some problems with the device,Please contact your sales agency in time</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>400-902-1168</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Existem alguns problemas com o dispositivo. Entre em contato com sua agência de vendas a tempo: 400-902-1168</t>
+    </r>
   </si>
   <si>
     <t>dialog_sim_card_network_connetion_failed_guide</t>
   </si>
   <si>
     <t>Tutorial of why SIM card connect to network failed</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Tutorial sobre falha na conexão do cartão SIM à rede</t>
+    </r>
   </si>
   <si>
     <t>sim_fail_help_message</t>
@@ -367,16 +1066,52 @@
     </t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+        1. A conexão de rede do cartão SIM será substituída por WI-FI. Se você deseja conectar-se à rede por cartão SIM, primeiro desconecte o WI-FI (clique em WI-FI e selecione [Cancelar Salvar]);
+        2. Desligar o aparelho, retirar o cartão SIM e verificar (é recomendável fazer um teste no celular). Substitua, se houver algum problema.
+    </t>
+    </r>
+  </si>
+  <si>
     <t>wenxintishi</t>
   </si>
   <si>
     <t>Kindly Reminder:</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Lembrete:</t>
+    </r>
+  </si>
+  <si>
     <t>wifi_help_title</t>
   </si>
   <si>
     <t xml:space="preserve"> Tutorial of why wireless network connection failed</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> Tutorial sobre a falha na conexão à rede sem fio</t>
+    </r>
   </si>
   <si>
     <t>wifi_help_info</t>
@@ -390,126 +1125,362 @@
     </t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+        1. Verificar se há algum problema com a rede (é recomendável verificar com o telefone celular)
+        2. Se a rede sem fio foi acessada por 10 ou mais dispositivos, o acesso do novo dispositivo será afetado. Desconecte algumas conexões antes de acessar o novo dispositivo
+        3. Quando o sistema exibir a mensagem de falha de conexão de rede, volte para a página de conexão de rede, clique na rede, cancele o comando para salvar e tente conectá-la novamente
+        4. Se a etapa 3 falhar, tente conectar qualquer outra rede (é recomendável fazer um teste usando o acesso por WLAN do celular)
+    </t>
+    </r>
+  </si>
+  <si>
     <t>wifi_no_available</t>
   </si>
   <si>
     <t>There's no available WLANs in around</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Não há WLANs disponíveis nas proximidades</t>
+    </r>
+  </si>
+  <si>
     <t>apn_set_title</t>
   </si>
   <si>
     <t>APN Setting</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Configuração APN</t>
+    </r>
+  </si>
+  <si>
     <t>apn_content</t>
   </si>
   <si>
     <t>Your SIM card can't access network,please retry after completed info. Click [Cancel] if you want to access network with WIFI</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Seu cartão SIM não pode acessar a rede. Tente novamente depois de completar as informações. Clique em [Cancelar] se quiser acessar a rede com WI-FI</t>
+    </r>
+  </si>
+  <si>
     <t>apn_name</t>
   </si>
   <si>
     <t>APN Name or Content</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Nome ou conteúdo de APN</t>
+    </r>
+  </si>
+  <si>
     <t>apn</t>
   </si>
   <si>
     <t>APN</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>APN</t>
+    </r>
+  </si>
+  <si>
     <t>apn_type</t>
   </si>
   <si>
     <t>APN Type</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Tipo APN</t>
+    </r>
+  </si>
+  <si>
     <t>apn_proxy</t>
   </si>
   <si>
     <t>APN Proxy</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Proxy de APN</t>
+    </r>
+  </si>
+  <si>
     <t>apn_port</t>
   </si>
   <si>
     <t>APN Port</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Porta APN</t>
+    </r>
+  </si>
+  <si>
     <t>apn_username</t>
   </si>
   <si>
     <t>User Name</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Nome do usuário</t>
+    </r>
+  </si>
+  <si>
     <t>apn_password</t>
   </si>
   <si>
     <t>Password</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Senha</t>
+    </r>
+  </si>
+  <si>
     <t>apn_server</t>
   </si>
   <si>
     <t>Server</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Servidor</t>
+    </r>
+  </si>
+  <si>
     <t>apn_mmsc</t>
   </si>
   <si>
     <t>MMSC</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>MMSC</t>
+    </r>
+  </si>
+  <si>
     <t>apn_mms_proxy</t>
   </si>
   <si>
     <t>MMS Proxy</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Proxy de MMS</t>
+    </r>
+  </si>
+  <si>
     <t>apn_mms_port</t>
   </si>
   <si>
     <t>MMS Port</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Porta MMS</t>
+    </r>
+  </si>
+  <si>
     <t>apn_mcc</t>
   </si>
   <si>
     <t>MCC</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>MCC</t>
+    </r>
+  </si>
+  <si>
     <t>apn_mnc</t>
   </si>
   <si>
     <t>MNC</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>MNC</t>
+    </r>
+  </si>
+  <si>
     <t>apn_authentication_type</t>
   </si>
   <si>
     <t>Authentication Type</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Tipo de autenticação</t>
+    </r>
+  </si>
+  <si>
     <t>apn_protocol</t>
   </si>
   <si>
     <t>APN Protocol</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Protocolo APN</t>
+    </r>
+  </si>
+  <si>
     <t>apn_roaming_protocol</t>
   </si>
   <si>
     <t>APN Roaming Protocol</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Protocolo de Roaming APN</t>
+    </r>
+  </si>
+  <si>
     <t>apn_bearer</t>
   </si>
   <si>
     <t>Bearer</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Portador</t>
+    </r>
+  </si>
+  <si>
     <t>apn_retry</t>
   </si>
   <si>
@@ -519,151 +1490,471 @@
     <t>APN Can\'t be null</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>O APN não pode ser nulo</t>
+    </r>
+  </si>
+  <si>
     <t>toast_apn_name</t>
   </si>
   <si>
     <t>APN Name Can\'t be null</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>O nome do APN não pode ser nulo</t>
+    </r>
+  </si>
+  <si>
     <t>network_sim_install</t>
   </si>
   <si>
     <t>Install SIM card?</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Instalar cartão SIM?</t>
+    </r>
+  </si>
+  <si>
     <t>network_sim_status_success</t>
   </si>
   <si>
     <t>SIM card network connection success</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Conexão do cartão SIM com a rede bem-sucedida</t>
+    </r>
+  </si>
+  <si>
     <t>network_sim_status_unknown</t>
   </si>
   <si>
     <t>Detect SIM card failed</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Falha ao detectar cartão SIM</t>
+    </r>
+  </si>
+  <si>
     <t>network_sim_connecting</t>
   </si>
   <si>
     <t>Connecting…</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Conectando…</t>
+    </r>
+  </si>
+  <si>
     <t>network_sim_wifi</t>
   </si>
   <si>
     <t>Before access network by SIM card,any accession by WIFI should be disabled</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Antes de acessar a rede por cartão SIM, todos os acessos por WI-FI devem ser desabilitados</t>
+    </r>
+  </si>
+  <si>
     <t>factory_forbid_swicth_debug</t>
   </si>
   <si>
     <t>Unable to switch to debug mode when terminal state is Factory!</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Não é possível mudar para o modo de depuração quando o dispositivo está com o status de fábrica!</t>
+    </r>
+  </si>
+  <si>
     <t>no_card</t>
   </si>
   <si>
     <t>No card</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Nenhum cartão</t>
+    </r>
+  </si>
+  <si>
     <t>unknown_state</t>
   </si>
   <si>
     <t>Unkown state</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Status desconhecido</t>
+    </r>
+  </si>
+  <si>
     <t>need_network_pin_unlock</t>
   </si>
   <si>
     <t>Need NetworkPIN unlock</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Precisa desbloquear NetworkPIN</t>
+    </r>
+  </si>
+  <si>
     <t>need_pin_unlock</t>
   </si>
   <si>
     <t>Need PIN unlock</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Precisa desbloquear o PIN</t>
+    </r>
+  </si>
+  <si>
     <t>need_puk_unlock</t>
   </si>
   <si>
     <t>Need PUK unlock</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Precisa desbloquear o PUK</t>
+    </r>
+  </si>
+  <si>
     <t>good</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>bom</t>
+    </r>
+  </si>
+  <si>
     <t>fail_check_2</t>
   </si>
   <si>
     <t>kms public key decryption error</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Erro de descriptografia de chave pública km</t>
+    </r>
+  </si>
+  <si>
     <t>fail_check_3</t>
   </si>
   <si>
     <t>KMS encrypted data structure error</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Erro de estrutura de dados criptografados KMS</t>
+    </r>
+  </si>
+  <si>
     <t>fail_check_6</t>
   </si>
   <si>
     <t>POS private key decryption error</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Erro de descriptografia de chave privada POS</t>
+    </r>
+  </si>
+  <si>
     <t>fail_check_7</t>
   </si>
   <si>
     <t>Check result error</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Verificar o resultado do erro</t>
+    </r>
+  </si>
+  <si>
     <t>fail_check_8</t>
   </si>
   <si>
     <t>Random number length error</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Erro de comprimento de número aleatório</t>
+    </r>
+  </si>
+  <si>
     <t>fail_check_9</t>
   </si>
   <si>
     <t>Random number error</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Erro de número aleatório</t>
+    </r>
+  </si>
+  <si>
     <t>fail_check_10</t>
   </si>
   <si>
     <t>Wrong switching mode type</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Tipo de modo de comutação errado</t>
+    </r>
+  </si>
+  <si>
     <t>fail_check_11</t>
   </si>
   <si>
     <t>Clear trigger type error</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Limpar erro do tipo de acionamento</t>
+    </r>
+  </si>
+  <si>
     <t>fail_check_12</t>
   </si>
   <si>
     <t>Write SN type error</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Gravar erro do tipo SN</t>
+    </r>
+  </si>
+  <si>
     <t>is_debug</t>
   </si>
   <si>
     <t>Debug mode?</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Modo de depuração?</t>
+    </r>
+  </si>
+  <si>
     <t>request_key_from_l1</t>
   </si>
   <si>
-    <t>Request authorization ciphertext from L1 layer：</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Request authorization ciphertext from L1 layer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Solicitar texto cifrado de autorização da camada L1:</t>
+    </r>
   </si>
   <si>
     <t>write_authorization_status</t>
   </si>
   <si>
-    <t>Write authorization status：</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Write authorization status</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Status da autorização de gravação:</t>
+    </r>
   </si>
   <si>
     <t>send_attacked_broadcast</t>
@@ -672,76 +1963,219 @@
     <t>Send attacked broadcast</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Enviar transmissão atacada</t>
+    </r>
+  </si>
+  <si>
     <t>send_change_mode_broadcast</t>
   </si>
   <si>
     <t>Send change mode broadcast</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Enviar transmissão de modo de mudança</t>
+    </r>
+  </si>
+  <si>
     <t>send_password_setting_broadcast</t>
   </si>
   <si>
     <t>Send power-on password setting broadcast</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Enviar transmissão de configuração de senha de inicialização</t>
+    </r>
+  </si>
+  <si>
     <t>get_device_model</t>
   </si>
   <si>
     <t>Test L1: Get the device model</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Teste L1: Descobrir o modelo do dispositivo</t>
+    </r>
+  </si>
+  <si>
     <t>get_sn_number</t>
   </si>
   <si>
     <t>Test L1: Get the SN number</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Teste L1: Descobrir o número de série</t>
+    </r>
+  </si>
+  <si>
     <t>get_security_status</t>
   </si>
   <si>
     <t>Test l1: Get the safety status of the machine</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Teste l1: Descobrir o status de segurança da máquina</t>
+    </r>
+  </si>
+  <si>
     <t>is_debug_machine</t>
   </si>
   <si>
     <t>Test L1: Get whether the POS is a debugging machine</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Teste L1: Descobrir se o POS é uma máquina de depuração</t>
+    </r>
+  </si>
+  <si>
     <t>request_authorization_code</t>
   </si>
   <si>
     <t>Test L1: Request authorization code ciphertext</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Teste L1: Solicitar texto cifrado do código de autorização</t>
+    </r>
+  </si>
+  <si>
     <t>confirm_authorization_code_status</t>
   </si>
   <si>
     <t>Test L1: Confirm authorization code status</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Teste L1: Confirmar status do código de autorização</t>
+    </r>
+  </si>
+  <si>
     <t>go_to_set</t>
   </si>
   <si>
     <t>Go to set</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Ir para configurações</t>
+    </r>
+  </si>
+  <si>
     <t>low_temp_alarm</t>
   </si>
   <si>
     <t>Low temperature alarm</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Alarme de baixa temperatura</t>
+    </r>
+  </si>
+  <si>
     <t>error_code_000</t>
   </si>
   <si>
     <t>ErrorCode:000000000800000888800</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Código de erro: 000000000800000888800</t>
+    </r>
+  </si>
+  <si>
     <t>wlan</t>
   </si>
   <si>
     <t>WLAN</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>WLAN</t>
+    </r>
   </si>
   <si>
     <t>week</t>
@@ -757,23 +2191,84 @@
         Saturday
     </t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+        Domingo
+        Segunda
+        Terça
+        Quarta
+        Quinta
+        Sexta
+        Sábado
+    </t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -784,13 +2279,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -798,18 +2295,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -829,14 +2333,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -845,30 +2356,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -883,15 +2371,31 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -906,26 +2410,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color indexed="8"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -937,31 +2436,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -985,13 +2484,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1003,91 +2526,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1099,13 +2538,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1121,13 +2554,94 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1144,7 +2658,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1156,6 +2670,21 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1175,16 +2704,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1194,7 +2723,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1213,177 +2742,180 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1704,1004 +3236,1377 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B123"/>
+  <dimension ref="A1:C123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="121" width="35" customWidth="1"/>
-    <col min="122" max="122" width="25" customWidth="1"/>
+    <col min="1" max="1" width="35" style="1" customWidth="1"/>
+    <col min="2" max="3" width="61.125" style="1" customWidth="1"/>
+    <col min="4" max="121" width="35" style="1" customWidth="1"/>
+    <col min="122" max="122" width="25" style="1" customWidth="1"/>
+    <col min="123" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
+      <c r="B2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
+    <row r="3" spans="1:3">
+      <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
+      <c r="C3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1" t="s">
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" ht="27" spans="1:2">
-      <c r="A6" t="s">
+      <c r="B4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C4" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" ht="27" spans="1:2">
-      <c r="A7" t="s">
+    <row r="5" spans="1:3">
+      <c r="A5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B5" s="6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
+      <c r="C5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="1" t="s">
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" ht="27" spans="1:2">
-      <c r="A9" t="s">
+      <c r="B6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C6" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
+    <row r="7" spans="1:3">
+      <c r="A7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B7" s="6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
+      <c r="C7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="1" t="s">
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
+      <c r="B8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C8" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
+    <row r="9" spans="1:3">
+      <c r="A9" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B9" s="6" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
+      <c r="C9" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="1" t="s">
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
+      <c r="B10" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C10" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
+    <row r="11" spans="1:3">
+      <c r="A11" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B11" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
+      <c r="C11" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="1" t="s">
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="18" ht="27" spans="1:2">
-      <c r="A18" t="s">
+      <c r="B12" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C12" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" ht="27" spans="1:2">
-      <c r="A19" t="s">
+    <row r="13" spans="1:3">
+      <c r="A13" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B13" s="6" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
+      <c r="C13" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="1" t="s">
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="5" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="21" ht="27" spans="1:2">
-      <c r="A21" t="s">
+      <c r="B14" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="C14" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="22" ht="27" spans="1:2">
-      <c r="A22" t="s">
+    <row r="15" spans="1:3">
+      <c r="A15" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B15" s="6" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
+      <c r="C15" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="1" t="s">
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="5" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
+      <c r="B16" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="C16" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
+    <row r="17" spans="1:3">
+      <c r="A17" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B17" s="6" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
+      <c r="C17" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="1" t="s">
+    </row>
+    <row r="18" ht="30" spans="1:3">
+      <c r="A18" s="5" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
+      <c r="B18" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="C18" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
-      <c r="A28" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B19" s="6" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s">
+      <c r="C19" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="1" t="s">
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="5" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" t="s">
+      <c r="B20" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="C20" s="6" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
+    <row r="21" spans="1:3">
+      <c r="A21" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B21" s="6" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="s">
+      <c r="C21" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B32" s="1" t="s">
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
+      <c r="B22" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="C22" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
+    <row r="23" spans="1:3">
+      <c r="A23" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B23" s="6" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" t="s">
+      <c r="C23" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" t="s">
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B24" s="6" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" t="s">
+      <c r="C24" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B37" s="1" t="s">
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="5" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" t="s">
+      <c r="B25" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="C25" s="6" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
-      <c r="A39" t="s">
+    <row r="26" spans="1:3">
+      <c r="A26" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B26" s="6" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="40" ht="27" spans="1:2">
-      <c r="A40" t="s">
+      <c r="C26" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="B40" s="1" t="s">
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="5" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" t="s">
+      <c r="B27" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="C27" s="6" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
-      <c r="A42" t="s">
+    <row r="28" spans="1:3">
+      <c r="A28" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B28" s="6" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" t="s">
+      <c r="C28" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B43" s="1" t="s">
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="5" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" t="s">
+      <c r="B29" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="C29" s="6" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
-      <c r="A45" t="s">
+    <row r="30" spans="1:3">
+      <c r="A30" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B30" s="6" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="46" ht="27" spans="1:2">
-      <c r="A46" t="s">
+      <c r="C30" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B46" s="1" t="s">
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="5" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" t="s">
+      <c r="B31" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" t="s">
+      <c r="C31" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="B48" s="1" t="s">
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="5" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="49" ht="40.5" spans="1:2">
-      <c r="A49" t="s">
+      <c r="B32" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="C32" s="6" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
-      <c r="A50" t="s">
+    <row r="33" spans="1:3">
+      <c r="A33" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B33" s="6" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" t="s">
+      <c r="C33" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="B51" s="1" t="s">
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="5" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" t="s">
+      <c r="B34" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="C34" s="6" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
-      <c r="A53" t="s">
+    <row r="35" spans="1:3">
+      <c r="A35" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B35" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="5" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" t="s">
+      <c r="B36" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="C36" s="6" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
-      <c r="A55" t="s">
+    <row r="37" spans="1:3">
+      <c r="A37" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B37" s="6" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" t="s">
+      <c r="C37" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="B56" s="1" t="s">
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="5" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="57" ht="40.5" spans="1:2">
-      <c r="A57" t="s">
+      <c r="B38" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="C38" s="6" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="58" ht="27" spans="1:2">
-      <c r="A58" t="s">
+    <row r="39" spans="1:3">
+      <c r="A39" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B39" s="6" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="59" ht="162" spans="1:2">
-      <c r="A59" t="s">
+      <c r="C39" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="B59" s="1" t="s">
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="5" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" t="s">
+      <c r="B40" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="C40" s="6" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="61" ht="27" spans="1:2">
-      <c r="A61" t="s">
+    <row r="41" spans="1:3">
+      <c r="A41" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B41" s="6" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="62" ht="283.5" spans="1:2">
-      <c r="A62" t="s">
+      <c r="C41" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="B62" s="1" t="s">
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="5" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="63" ht="27" spans="1:2">
-      <c r="A63" t="s">
+      <c r="B42" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="C42" s="6" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
-      <c r="A64" t="s">
+    <row r="43" spans="1:3">
+      <c r="A43" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B43" s="6" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="65" ht="67.5" spans="1:2">
-      <c r="A65" t="s">
+      <c r="C43" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="B65" s="1" t="s">
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="5" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" t="s">
+      <c r="B44" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="C44" s="6" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
-      <c r="A67" t="s">
+    <row r="45" spans="1:3">
+      <c r="A45" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B45" s="6" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" t="s">
+      <c r="C45" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="B68" s="1" t="s">
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="5" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" t="s">
+      <c r="B46" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="C46" s="6" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
-      <c r="A70" t="s">
+    <row r="47" spans="1:3">
+      <c r="A47" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B47" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="5" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" t="s">
+      <c r="B48" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="C48" s="6" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
-      <c r="A72" t="s">
+    <row r="49" ht="30" spans="1:3">
+      <c r="A49" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B49" s="6" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" t="s">
+      <c r="C49" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="B73" s="1" t="s">
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="5" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" t="s">
+      <c r="B50" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="C50" s="6" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
-      <c r="A75" t="s">
+    <row r="51" spans="1:3">
+      <c r="A51" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B51" s="6" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" t="s">
+      <c r="C51" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="B76" s="1" t="s">
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="5" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" t="s">
+      <c r="B52" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="C52" s="6" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
-      <c r="A78" t="s">
+    <row r="53" spans="1:3">
+      <c r="A53" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B53" s="6" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" t="s">
+      <c r="C53" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="B79" s="1" t="s">
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="5" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" t="s">
+      <c r="B54" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="C54" s="6" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
-      <c r="A81" t="s">
+    <row r="55" spans="1:3">
+      <c r="A55" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B55" s="6" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82" t="s">
+      <c r="C55" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="B82" s="1" t="s">
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="5" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83" t="s">
+      <c r="B56" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="B83" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" t="s">
+      <c r="C56" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="B84" s="1" t="s">
+    </row>
+    <row r="57" ht="30" spans="1:3">
+      <c r="A57" s="5" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="A85" t="s">
+      <c r="B57" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="C57" s="6" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
-      <c r="A86" t="s">
+    <row r="58" spans="1:3">
+      <c r="A58" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="B58" s="6" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="87" ht="27" spans="1:2">
-      <c r="A87" t="s">
+      <c r="C58" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="B87" s="1" t="s">
+    </row>
+    <row r="59" ht="105" spans="1:3">
+      <c r="A59" s="5" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="88" spans="1:2">
-      <c r="A88" t="s">
+      <c r="B59" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="C59" s="6" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
-      <c r="A89" t="s">
+    <row r="60" spans="1:3">
+      <c r="A60" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="B60" s="6" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="90" ht="40.5" spans="1:2">
-      <c r="A90" t="s">
+      <c r="C60" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="B90" s="1" t="s">
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="5" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="91" ht="27" spans="1:2">
-      <c r="A91" t="s">
+      <c r="B61" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="C61" s="6" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
-      <c r="A92" t="s">
+    <row r="62" ht="180" spans="1:3">
+      <c r="A62" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="B62" s="6" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="93" spans="1:2">
-      <c r="A93" t="s">
+      <c r="C62" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="B93" s="1" t="s">
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="5" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="94" spans="1:2">
-      <c r="A94" t="s">
+      <c r="B63" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="C63" s="6" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
-      <c r="A95" t="s">
+    <row r="64" spans="1:3">
+      <c r="A64" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="B64" s="6" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="96" spans="1:2">
-      <c r="A96" t="s">
+      <c r="C64" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="B96" s="1" t="s">
+    </row>
+    <row r="65" ht="45" spans="1:3">
+      <c r="A65" s="5" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
-      <c r="A97" t="s">
+      <c r="B65" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="B97" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
-      <c r="A98" t="s">
+      <c r="C65" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="B98" s="1" t="s">
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="5" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="99" spans="1:2">
-      <c r="A99" t="s">
+      <c r="B66" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="C66" s="6" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
-      <c r="A100" t="s">
+    <row r="67" spans="1:3">
+      <c r="A67" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="B67" s="6" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
-      <c r="A101" t="s">
+      <c r="C67" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="B101" s="1" t="s">
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="5" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="102" spans="1:2">
-      <c r="A102" t="s">
+      <c r="B68" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="C68" s="6" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
-      <c r="A103" t="s">
+    <row r="69" spans="1:3">
+      <c r="A69" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="B69" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
-      <c r="A104" t="s">
+      <c r="C69" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="B104" s="1" t="s">
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="5" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="105" spans="1:2">
-      <c r="A105" t="s">
+      <c r="B70" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="B105" s="1" t="s">
+      <c r="C70" s="6" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
-      <c r="A106" t="s">
+    <row r="71" spans="1:3">
+      <c r="A71" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="B71" s="6" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="107" spans="1:2">
-      <c r="A107" t="s">
+      <c r="C71" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="B107" s="1" t="s">
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="5" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="108" ht="27" spans="1:2">
-      <c r="A108" t="s">
+      <c r="B72" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="C72" s="6" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
-      <c r="A109" t="s">
+    <row r="73" spans="1:3">
+      <c r="A73" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="B73" s="6" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="110" spans="1:2">
-      <c r="A110" t="s">
+      <c r="C73" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="B110" s="1" t="s">
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="5" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="111" spans="1:2">
-      <c r="A111" t="s">
+      <c r="B74" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="C74" s="6" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="112" ht="27" spans="1:2">
-      <c r="A112" t="s">
+    <row r="75" spans="1:3">
+      <c r="A75" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="B112" s="1" t="s">
+      <c r="B75" s="6" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="113" spans="1:2">
-      <c r="A113" t="s">
+      <c r="C75" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="B113" s="1" t="s">
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="5" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="114" spans="1:2">
-      <c r="A114" t="s">
+      <c r="B76" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="B114" s="1" t="s">
+      <c r="C76" s="6" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="115" ht="27" spans="1:2">
-      <c r="A115" t="s">
+    <row r="77" spans="1:3">
+      <c r="A77" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="B115" s="1" t="s">
+      <c r="B77" s="6" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="116" ht="27" spans="1:2">
-      <c r="A116" t="s">
+      <c r="C77" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="B116" s="1" t="s">
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="5" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="117" ht="27" spans="1:2">
-      <c r="A117" t="s">
+      <c r="B78" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="B117" s="1" t="s">
+      <c r="C78" s="6" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="118" ht="27" spans="1:2">
-      <c r="A118" t="s">
+    <row r="79" spans="1:3">
+      <c r="A79" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="B118" s="1" t="s">
+      <c r="B79" s="6" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="119" spans="1:2">
-      <c r="A119" t="s">
+      <c r="C79" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="B119" s="1" t="s">
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="5" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="120" spans="1:2">
-      <c r="A120" t="s">
+      <c r="B80" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="B120" s="1" t="s">
+      <c r="C80" s="6" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="121" spans="1:2">
-      <c r="A121" t="s">
+    <row r="81" spans="1:3">
+      <c r="A81" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="B121" s="1" t="s">
+      <c r="B81" s="6" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="122" spans="1:2">
-      <c r="A122" t="s">
+      <c r="C81" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="B122" s="1" t="s">
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="5" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="123" ht="121.5" spans="1:2">
-      <c r="A123" t="s">
+      <c r="B82" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="B123" s="1" t="s">
+      <c r="C82" s="6" t="s">
         <v>241</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="90" ht="30" spans="1:3">
+      <c r="A90" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="91" ht="30" spans="1:3">
+      <c r="A91" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="B105" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="B107" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="B108" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C108" s="6" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="B109" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="B110" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="C110" s="6" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="B111" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="B112" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="C112" s="6" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="B113" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="B114" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="B115" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="C115" s="6" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="B116" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="C116" s="6" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="B117" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="C117" s="6" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="B118" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="C118" s="6" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B119" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="B120" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="C120" s="6" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="B121" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="B122" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="C122" s="6" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="123" ht="135" spans="1:3">
+      <c r="A123" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="B123" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="C123" s="7" t="s">
+        <v>361</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
   <headerFooter/>
 </worksheet>
 </file>